--- a/skillbase.xlsx
+++ b/skillbase.xlsx
@@ -2233,7 +2233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2315,10 +2315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strength,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2443,103 +2439,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>normal_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assist_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instant_kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;eventtarget,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;eventtarget,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength,1,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtrigger,5000,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally,1,charisma,1,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally,-1,charisma,1,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hppercent,0.7,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valuebase_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,2000,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,1,0.5,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>self,alive,1;enemy,alive,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>normal_heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ally,1,charisma,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ally,-1,charisma,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assist_heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soul.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtrigger,5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uncommon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instant_kill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hppercent,0.5,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtarget,2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;eventtarget,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;eventtarget,alive,1;</t>
+    <t>self,alive,1;enemy,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,2001,particles/taken-gem.plist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2915,10 +2979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2930,7 +2994,8 @@
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="19.5" customWidth="1"/>
     <col min="13" max="13" width="34.375" customWidth="1"/>
-    <col min="14" max="15" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2971,7 +3036,7 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -2988,10 +3053,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -3018,13 +3083,13 @@
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3035,19 +3100,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -3059,19 +3124,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3079,22 +3144,22 @@
         <v>1200</v>
       </c>
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -3106,19 +3171,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3126,22 +3191,22 @@
         <v>1400</v>
       </c>
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -3153,133 +3218,136 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" t="s">
         <v>46</v>
       </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>1600</v>
+        <v>1401</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>2400</v>
+        <v>1601</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -3291,16 +3359,107 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>2000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>2400</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
         <v>51</v>
       </c>
-      <c r="M8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" t="s">
-        <v>54</v>
+      <c r="O10" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/skillbase.xlsx
+++ b/skillbase.xlsx
@@ -2233,7 +2233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="140">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2319,27 +2319,271 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,1,strength,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_2400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_2400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assist_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instant_kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;eventtarget,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;eventtarget,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength,1,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally,1,charisma,1,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally,-1,charisma,1,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hppercent,0.7,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valuebase_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,2000,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,1,0.5,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>self,alive,1;enemy,alive,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>self,alive,1;enemy,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>soul.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_NAME_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_2000</t>
+    <t>SKILL_NAME_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2347,263 +2591,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>physic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtrigger,1000,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtrigger,5000,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtrigger,5001,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beDefender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally_except_me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength,1,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,2001,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,1001,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,1002,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1604</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1604</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,1003,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,1004,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>self,alive,1;enemy,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;enemy,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>normal_attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_NAME_1600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uncommon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy,1,strength,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soul.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_2400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_2400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal_heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assist_heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soul.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uncommon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instant_kill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;eventtarget,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;eventtarget,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strength,1,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtrigger,5000,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ally,1,charisma,1,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ally,-1,charisma,1,particles/taken-gem.plist,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hppercent,0.7,particles/taken-gem.plist,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valuebase_heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtarget,2000,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,1,0.5,particles/taken-gem.plist,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;enemy,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;enemy,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtarget,2001,particles/taken-gem.plist</t>
+    <t>normal_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,1,strength,5,particles/taken-gem.plist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2979,10 +3167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3053,10 +3241,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -3083,13 +3271,13 @@
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3100,19 +3288,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -3124,42 +3312,42 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" t="s">
         <v>65</v>
       </c>
-      <c r="L3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
         <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>1200</v>
+        <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
+        <v>87</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -3171,42 +3359,42 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -3218,42 +3406,42 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
         <v>43</v>
       </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
-      </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>1401</v>
+        <v>1201</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -3265,89 +3453,89 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>1600</v>
+        <v>1202</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>1601</v>
+        <v>1203</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -3359,42 +3547,42 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -3406,39 +3594,42 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>2400</v>
+        <v>1401</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -3450,16 +3641,433 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
       </c>
       <c r="M10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>1600</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>1601</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>1602</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>1603</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>1604</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>1605</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>2000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>135</v>
+      </c>
+      <c r="N17" t="s">
+        <v>137</v>
+      </c>
+      <c r="O17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>2400</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
         <v>46</v>
       </c>
-      <c r="N10" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" t="s">
-        <v>72</v>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>3000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" t="s">
+        <v>136</v>
+      </c>
+      <c r="N19" t="s">
+        <v>138</v>
+      </c>
+      <c r="O19" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/skillbase.xlsx
+++ b/skillbase.xlsx
@@ -625,87 +625,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">技能类型
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">attack </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>攻击</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-defense </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>防御</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-heal </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">治疗
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">buffer </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>状态</t>
+          <t>职业组
+相应职业升级信息</t>
         </r>
       </text>
     </comment>
@@ -750,7 +671,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">效果类型
+          <t xml:space="preserve">技能类型
 </t>
         </r>
         <r>
@@ -760,37 +681,77 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>physic</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>物理</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-magic</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>魔法</t>
+          <t xml:space="preserve">attack </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+defense </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>防御</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+heal </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">治疗
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">buffer </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>状态</t>
         </r>
       </text>
     </comment>
@@ -835,7 +796,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">稀有度，影响技能升级经验等
+          <t xml:space="preserve">效果类型
 </t>
         </r>
         <r>
@@ -845,97 +806,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>common</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">普通
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>uncommon</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">少见
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>rare</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">稀有
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>epic</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">史诗
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>legendary</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>传奇</t>
+          <t>physic</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物理</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+magic</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>魔法</t>
         </r>
       </text>
     </comment>
@@ -980,92 +881,107 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>最大释放几率，技能现在最大等级为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>10</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>，如果这个值是</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0.5</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>，那</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>级技能的释放几率为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0.5*0.1=0.05</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>，为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>5%</t>
+          <t xml:space="preserve">稀有度，影响技能升级经验等
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>common</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">普通
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>uncommon</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">少见
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>rare</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">稀有
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>epic</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">史诗
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>legendary</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>传奇</t>
         </r>
       </text>
     </comment>
@@ -1110,27 +1026,45 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">冷却时间，单位为回合。
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>代表没冷却，</t>
+          <t>最大释放几率，技能现在最大等级为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，如果这个值是</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，那</t>
         </r>
         <r>
           <rPr>
@@ -1149,45 +1083,35 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>代表</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>回合放一次，下一回合还可以放，</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>代表下回合和释放这回合都不能再释放了。</t>
+          <t>级技能的释放几率为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.5*0.1=0.05</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5%</t>
         </r>
       </text>
     </comment>
@@ -1232,7 +1156,84 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>技能触发需要的能量值。</t>
+          <t xml:space="preserve">冷却时间，单位为回合。
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代表没冷却，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代表</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>回合放一次，下一回合还可以放，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代表下回合和释放这回合都不能再释放了。</t>
         </r>
       </text>
     </comment>
@@ -1277,596 +1278,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">触发事件类型，触发事件类型和角色都满足时才会触发技能
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>action</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">主动使用技能填这个
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>battle_start</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>战斗开始</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-action_start</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>任意动作开始</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-action_end</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>任意动作结束后</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-attack_before</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>攻击前</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-attack_after</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>攻击后</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-heal_before</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>治疗前</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-heal_after</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>治疗后</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-dodge_before</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>躲闪前</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-dodge_after</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>躲闪后</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-crit_before</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>暴击前</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-crit_after</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>暴击后</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-skill_before</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>技能使用前</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-skill_after</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>技能使用后</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-hpadd</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>体力增加</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-hpminor</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>体力减少</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-attackadd</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>攻击增加</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-attackminor</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>攻击减少</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-defenseadd</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>防御增加</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-defenseminor</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>防御减少</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-specialattackadd</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>特攻增加</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-specialattackminor</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>特攻减少</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-speedadd</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>速度增加</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-speedminor</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>速度减少</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-dodgeadd</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>躲闪增加</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-dodgeminor</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>躲闪减少</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-critadd</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>暴击增加</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-critminor</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>暴击减少</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-dead</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>死亡</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
+          <t>技能触发需要的能量值。</t>
         </r>
       </text>
     </comment>
@@ -1911,7 +1323,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">触发事件的对象
+          <t xml:space="preserve">触发事件类型，触发事件类型和角色都满足时才会触发技能
 </t>
         </r>
         <r>
@@ -1921,57 +1333,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>all</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>任何场上角色</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-ally</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>任何友军</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-enemy</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">任何敌人
+          <t>action</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">主动使用技能填这个
 </t>
         </r>
         <r>
@@ -1981,57 +1353,566 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>all_except_me</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">除自己以外的任何人
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ally_except_ne</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">除自己以外的友军
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>self</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>自己</t>
+          <t>battle_start</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>战斗开始</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+action_start</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>任意动作开始</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+action_end</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>任意动作结束后</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+attack_before</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击前</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+attack_after</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击后</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+heal_before</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>治疗前</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+heal_after</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>治疗后</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+dodge_before</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>躲闪前</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+dodge_after</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>躲闪后</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+crit_before</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>暴击前</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+crit_after</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>暴击后</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+skill_before</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技能使用前</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+skill_after</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技能使用后</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+hpadd</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>体力增加</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+hpminor</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>体力减少</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+attackadd</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击增加</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+attackminor</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击减少</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+defenseadd</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>防御增加</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+defenseminor</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>防御减少</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+specialattackadd</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>特攻增加</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+specialattackminor</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>特攻减少</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+speedadd</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>速度增加</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+speedminor</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>速度减少</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+dodgeadd</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>躲闪增加</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+dodgeminor</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>躲闪减少</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+critadd</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>暴击增加</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+critminor</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>暴击减少</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+dead</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>死亡</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
         </r>
       </text>
     </comment>
@@ -2076,7 +1957,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">触发条件
+          <t xml:space="preserve">触发事件的对象
 </t>
         </r>
         <r>
@@ -2086,55 +1967,117 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>alive</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>代表活着，后面的</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>代表数量为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>其他值代表死了。</t>
+          <t>all</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>任何场上角色</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ally</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>任何友军</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+enemy</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">任何敌人
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>all_except_me</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">除自己以外的任何人
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ally_except_ne</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">除自己以外的友军
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>self</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自己</t>
         </r>
       </text>
     </comment>
@@ -2179,11 +2122,114 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>技能触发时执行的逻辑类型</t>
+          <t xml:space="preserve">触发条件
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>alive</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代表活着，后面的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代表数量为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>其他值代表死了。</t>
         </r>
       </text>
     </comment>
     <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技能触发时执行的逻辑类型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2233,7 +2279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="140">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2367,10 +2413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enemy,1,strength,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2499,18 +2541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strength,1,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ally,1,charisma,1,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ally,-1,charisma,1,particles/taken-gem.plist,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hppercent,0.7,particles/taken-gem.plist,particles/taken-gem.plist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2683,10 +2713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strength,1,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SKILL_NAME_1602</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2791,7 +2817,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enemy,1,strength,5,particles/taken-gem.plist</t>
+    <t>profession_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,1,attack,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,1,attack,5,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally,1,heal,1,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally,-1,heal,1,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack,1,particles/taken-gem.plist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3167,26 +3213,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="19.5" customWidth="1"/>
-    <col min="13" max="13" width="34.375" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="78.5" customWidth="1"/>
+    <col min="3" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="11" width="15.75" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="14" max="14" width="34.375" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3200,40 +3246,43 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -3246,41 +3295,44 @@
       <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.5</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
-        <v>64</v>
-      </c>
       <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
-        <v>66</v>
+      <c r="P2" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -3288,140 +3340,149 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>65</v>
       </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="N4" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>93</v>
-      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>1200</v>
       </c>
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>53</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>54</v>
       </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5">
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>102</v>
+      <c r="K5">
+        <v>0</v>
       </c>
       <c r="L5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" t="s">
-        <v>100</v>
+      <c r="P5" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>1201</v>
       </c>
@@ -3429,46 +3490,49 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" t="s">
         <v>95</v>
       </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s">
         <v>97</v>
       </c>
-      <c r="F6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" t="s">
-        <v>99</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" t="s">
-        <v>101</v>
-      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>1202</v>
       </c>
@@ -3476,46 +3540,49 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
         <v>103</v>
       </c>
-      <c r="D7" t="s">
+      <c r="P7" t="s">
         <v>104</v>
       </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M7" t="s">
-        <v>99</v>
-      </c>
-      <c r="N7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" t="s">
-        <v>108</v>
-      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>1203</v>
       </c>
@@ -3523,93 +3590,99 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" t="s">
-        <v>97</v>
+        <v>106</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>97</v>
+      <c r="K8">
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="P8" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>1400</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
       </c>
       <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
         <v>42</v>
       </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" t="s">
-        <v>49</v>
-      </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>48</v>
+      </c>
+      <c r="P9" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>1401</v>
       </c>
@@ -3617,46 +3690,49 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="P10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N10" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>1600</v>
       </c>
@@ -3669,41 +3745,44 @@
       <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>32</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
         <v>34</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" t="s">
         <v>35</v>
       </c>
-      <c r="M11" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" t="s">
-        <v>75</v>
+      <c r="P11" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>1601</v>
       </c>
@@ -3711,46 +3790,49 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>77</v>
       </c>
-      <c r="D12" t="s">
+      <c r="M12" t="s">
         <v>78</v>
       </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="N12" t="s">
         <v>80</v>
       </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N12" t="s">
-        <v>36</v>
-      </c>
       <c r="O12" t="s">
-        <v>118</v>
+        <v>35</v>
+      </c>
+      <c r="P12" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>1602</v>
       </c>
@@ -3758,46 +3840,49 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" t="s">
         <v>114</v>
       </c>
-      <c r="E13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>1603</v>
       </c>
@@ -3805,46 +3890,49 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="F14" t="s">
-        <v>116</v>
-      </c>
       <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
         <v>90</v>
       </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" t="s">
-        <v>91</v>
-      </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="O14" t="s">
-        <v>122</v>
+        <v>35</v>
+      </c>
+      <c r="P14" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>1604</v>
       </c>
@@ -3852,46 +3940,49 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>31</v>
       </c>
-      <c r="F15" t="s">
-        <v>116</v>
-      </c>
       <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>90</v>
       </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" t="s">
-        <v>91</v>
-      </c>
       <c r="M15" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="O15" t="s">
-        <v>127</v>
+        <v>35</v>
+      </c>
+      <c r="P15" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>1605</v>
       </c>
@@ -3899,46 +3990,49 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
-        <v>116</v>
-      </c>
       <c r="G16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>90</v>
       </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" t="s">
-        <v>91</v>
-      </c>
       <c r="M16" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="O16" t="s">
-        <v>128</v>
+        <v>35</v>
+      </c>
+      <c r="P16" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -3951,123 +4045,132 @@
       <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>16</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>27</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>10</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
         <v>28</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" t="s">
         <v>135</v>
       </c>
-      <c r="N17" t="s">
-        <v>137</v>
-      </c>
-      <c r="O17" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2400</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>40</v>
       </c>
       <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
         <v>46</v>
       </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" t="s">
         <v>47</v>
       </c>
-      <c r="M18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O18" t="s">
-        <v>67</v>
+      <c r="P18" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>3000</v>
       </c>
       <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
         <v>129</v>
       </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="N19" t="s">
         <v>131</v>
       </c>
-      <c r="E19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="O19" t="s">
         <v>133</v>
       </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="P19" t="s">
         <v>136</v>
-      </c>
-      <c r="N19" t="s">
-        <v>138</v>
-      </c>
-      <c r="O19" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/skillbase.xlsx
+++ b/skillbase.xlsx
@@ -316,7 +316,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>个是物理技能
+          <t>个是攻击技能
 从</t>
         </r>
         <r>
@@ -355,7 +355,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>个是魔法技能
+          <t>个是治疗技能
 从</t>
         </r>
         <r>
@@ -2279,7 +2279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="151">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2569,10 +2569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>self,1,0.5,particles/taken-gem.plist,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SKILL_NAME_1601</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2753,18 +2749,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_NAME_1604</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SKILL_NAME_1605</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_DESC_1604</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SKILL_DESC_1605</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2825,10 +2813,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enemy,1,attack,5,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ally,1,heal,1,particles/taken-gem.plist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2838,6 +2822,66 @@
   </si>
   <si>
     <t>attack,1,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,4000,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,1,0.5,particles/taken-gem.plist,particles/taken-gem.plist,Heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,1,0.5,particles/taken-gem.plist,particles/taken-gem.plist,MaxHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,2,attack,1.5,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,1,Attack,4,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3213,10 +3257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3246,7 +3290,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -3329,7 +3373,7 @@
         <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3387,25 +3431,25 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -3417,19 +3461,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" t="s">
         <v>87</v>
-      </c>
-      <c r="N4" t="s">
-        <v>88</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3467,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -3479,7 +3523,7 @@
         <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3490,22 +3534,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>92</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>93</v>
       </c>
-      <c r="G6" t="s">
-        <v>94</v>
-      </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -3517,19 +3561,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
         <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -3540,22 +3584,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
         <v>99</v>
       </c>
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -3567,19 +3611,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="s">
         <v>101</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
         <v>102</v>
       </c>
-      <c r="N7" t="s">
-        <v>95</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>103</v>
-      </c>
-      <c r="P7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -3590,22 +3634,22 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
         <v>105</v>
       </c>
-      <c r="D8" t="s">
-        <v>106</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
         <v>85</v>
-      </c>
-      <c r="H8" t="s">
-        <v>86</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -3617,19 +3661,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3679,7 +3723,7 @@
         <v>48</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3729,7 +3773,7 @@
         <v>70</v>
       </c>
       <c r="P10" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3773,7 +3817,7 @@
         <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O11" t="s">
         <v>35</v>
@@ -3790,19 +3834,19 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
         <v>74</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" t="s">
-        <v>76</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -3817,19 +3861,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" t="s">
         <v>77</v>
       </c>
-      <c r="M12" t="s">
-        <v>78</v>
-      </c>
       <c r="N12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O12" t="s">
         <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -3840,22 +3884,22 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
         <v>108</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
         <v>109</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>110</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>111</v>
-      </c>
-      <c r="H13" t="s">
-        <v>112</v>
       </c>
       <c r="I13">
         <v>10</v>
@@ -3867,19 +3911,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O13" t="s">
         <v>35</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3890,10 +3934,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
         <v>115</v>
-      </c>
-      <c r="D14" t="s">
-        <v>116</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3902,10 +3946,10 @@
         <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -3917,33 +3961,33 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O14" t="s">
         <v>35</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
         <v>118</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3952,10 +3996,10 @@
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -3967,45 +4011,45 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O15" t="s">
         <v>35</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16">
-        <v>1605</v>
+        <v>2000</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I16">
         <v>10</v>
@@ -4017,45 +4061,45 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="N16" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="O16" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I17">
         <v>10</v>
@@ -4067,110 +4111,319 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="M17" t="s">
+        <v>61</v>
       </c>
       <c r="N17" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="O17" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I18">
         <v>10</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>46</v>
+        <v>126</v>
+      </c>
+      <c r="M18" t="s">
+        <v>61</v>
       </c>
       <c r="N18" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="O18" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>3002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
         <v>1</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <v>3</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" t="s">
         <v>129</v>
       </c>
-      <c r="N19" t="s">
-        <v>131</v>
-      </c>
-      <c r="O19" t="s">
-        <v>133</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="P20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>3003</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>4000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>6000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
         <v>136</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/skillbase.xlsx
+++ b/skillbase.xlsx
@@ -2279,7 +2279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="176">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2757,7 +2757,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eventtarget,1003,particles/taken-gem.plist</t>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;enemy,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;enemy,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profession_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,1,attack,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally,-1,heal,1,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack,1,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,1,Attack,4,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,1003,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,1000,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,5002,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally,1,Heal,1,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,5003,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,2,Attack,1.5,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,-1,Attack,0.9,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,4000,particles/taken-gem.plist,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,2000,particles/taken-gem.plist,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,5004,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,1,0.5,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2765,123 +2977,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>soul.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;enemy,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;enemy,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profession_class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy,1,attack,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ally,1,heal,1,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ally,-1,heal,1,particles/taken-gem.plist,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack,1,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtarget,4000,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,1,0.5,particles/taken-gem.plist,particles/taken-gem.plist,Heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,1,0.5,particles/taken-gem.plist,particles/taken-gem.plist,MaxHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy,2,attack,1.5,particles/taken-gem.plist,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy,1,Attack,4,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3003</t>
+    <t>5,3,boarder_left.png,particles/taken-gem.plist,particles/taken-gem.plist,line,Attack,0.9,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi_attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3257,10 +3357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3273,7 +3373,7 @@
     <col min="13" max="13" width="19.5" customWidth="1"/>
     <col min="14" max="14" width="34.375" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="16" width="78.5" customWidth="1"/>
+    <col min="16" max="16" width="130.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3290,7 +3390,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -3373,7 +3473,7 @@
         <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3673,7 +3773,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3723,7 +3823,7 @@
         <v>48</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3773,7 +3873,7 @@
         <v>70</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4023,7 +4123,7 @@
         <v>35</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -4067,13 +4167,13 @@
         <v>61</v>
       </c>
       <c r="N16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" t="s">
         <v>127</v>
       </c>
-      <c r="O16" t="s">
-        <v>129</v>
-      </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -4105,10 +4205,10 @@
         <v>10</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" t="s">
         <v>46</v>
@@ -4123,7 +4223,7 @@
         <v>47</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -4131,25 +4231,25 @@
         <v>3000</v>
       </c>
       <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>122</v>
-      </c>
-      <c r="D18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>124</v>
       </c>
       <c r="G18" t="s">
         <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I18">
         <v>10</v>
@@ -4161,19 +4261,19 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M18" t="s">
         <v>61</v>
       </c>
       <c r="N18" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" t="s">
         <v>128</v>
       </c>
-      <c r="O18" t="s">
-        <v>130</v>
-      </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -4184,10 +4284,10 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4205,13 +4305,13 @@
         <v>10</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M19" t="s">
         <v>61</v>
@@ -4223,7 +4323,7 @@
         <v>35</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4234,10 +4334,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4261,7 +4361,7 @@
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M20" t="s">
         <v>61</v>
@@ -4270,10 +4370,10 @@
         <v>78</v>
       </c>
       <c r="O20" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -4284,10 +4384,10 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4305,13 +4405,13 @@
         <v>10</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M21" t="s">
         <v>61</v>
@@ -4323,80 +4423,80 @@
         <v>35</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22">
-        <v>4000</v>
+        <v>3004</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="M22" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N22" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23">
-        <v>6000</v>
+        <v>3005</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
         <v>8</v>
@@ -4405,25 +4505,425 @@
         <v>10</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="M23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>3006</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>3007</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>4001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>6000</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27" t="s">
+        <v>124</v>
+      </c>
+      <c r="M27" t="s">
         <v>61</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N27" t="s">
         <v>42</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O27" t="s">
         <v>35</v>
       </c>
-      <c r="P23" t="s">
-        <v>119</v>
+      <c r="P27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>6001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" t="s">
+        <v>35</v>
+      </c>
+      <c r="P28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>6002</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" t="s">
+        <v>35</v>
+      </c>
+      <c r="P29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>6003</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>6004</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/skillbase.xlsx
+++ b/skillbase.xlsx
@@ -2279,7 +2279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="185">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2982,6 +2982,42 @@
   </si>
   <si>
     <t>multi_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,3000,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,1006,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,4001,particles/taken-gem.plist,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,1005,particles/taken-gem.plist,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3357,10 +3393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4123,33 +4159,33 @@
         <v>35</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16">
-        <v>2000</v>
+        <v>1606</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <v>10</v>
@@ -4161,145 +4197,145 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="M16" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="O16" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17">
-        <v>2400</v>
+        <v>1607</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I17">
         <v>10</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N17" t="s">
         <v>42</v>
       </c>
       <c r="O17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="I18">
         <v>10</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="M18" t="s">
         <v>61</v>
       </c>
       <c r="N18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19">
-        <v>3001</v>
+        <v>2400</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -4311,45 +4347,45 @@
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="M19" t="s">
         <v>61</v>
       </c>
       <c r="N19" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="O19" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
         <v>58</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="I20">
         <v>10</v>
@@ -4367,33 +4403,33 @@
         <v>61</v>
       </c>
       <c r="N20" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="O20" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
@@ -4423,30 +4459,30 @@
         <v>35</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
         <v>8</v>
@@ -4461,101 +4497,101 @@
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="N22" t="s">
         <v>78</v>
       </c>
       <c r="O22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I23">
         <v>10</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K23">
         <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="N23" t="s">
         <v>78</v>
       </c>
       <c r="O23" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I24">
         <v>10</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -4570,42 +4606,42 @@
         <v>78</v>
       </c>
       <c r="O24" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I25">
         <v>10</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -4620,36 +4656,36 @@
         <v>78</v>
       </c>
       <c r="O25" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26">
-        <v>4001</v>
+        <v>3006</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I26">
         <v>10</v>
@@ -4667,27 +4703,27 @@
         <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="O26" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27">
-        <v>6000</v>
+        <v>3007</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4696,10 +4732,10 @@
         <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I27">
         <v>10</v>
@@ -4711,39 +4747,39 @@
         <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="M27" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N27" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="O27" t="s">
         <v>35</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28">
-        <v>6001</v>
+        <v>4001</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -4770,24 +4806,24 @@
         <v>42</v>
       </c>
       <c r="O28" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29">
-        <v>6002</v>
+        <v>6000</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4796,7 +4832,7 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
         <v>8</v>
@@ -4811,10 +4847,10 @@
         <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="M29" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="N29" t="s">
         <v>42</v>
@@ -4823,21 +4859,21 @@
         <v>35</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4873,21 +4909,21 @@
         <v>35</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4923,6 +4959,106 @@
         <v>35</v>
       </c>
       <c r="P31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>6003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>6004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33" t="s">
         <v>168</v>
       </c>
     </row>

--- a/skillbase.xlsx
+++ b/skillbase.xlsx
@@ -3395,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4344,7 +4344,7 @@
         <v>5</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>46</v>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>124</v>
@@ -4444,7 +4444,7 @@
         <v>5</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>124</v>
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>124</v>
@@ -4544,7 +4544,7 @@
         <v>5</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>124</v>
@@ -4594,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
         <v>11</v>
@@ -4644,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>11</v>
@@ -4694,7 +4694,7 @@
         <v>5</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
         <v>11</v>
@@ -4744,7 +4744,7 @@
         <v>5</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L27" t="s">
         <v>11</v>
@@ -4794,7 +4794,7 @@
         <v>5</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
         <v>11</v>
@@ -4844,7 +4844,7 @@
         <v>5</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" t="s">
         <v>124</v>
@@ -4894,7 +4894,7 @@
         <v>5</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
         <v>11</v>
@@ -4944,7 +4944,7 @@
         <v>5</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L31" t="s">
         <v>11</v>
@@ -4994,7 +4994,7 @@
         <v>5</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" t="s">
         <v>11</v>
@@ -5044,7 +5044,7 @@
         <v>5</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" t="s">
         <v>11</v>

--- a/skillbase.xlsx
+++ b/skillbase.xlsx
@@ -3017,7 +3017,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enemy,1005,particles/taken-gem.plist,1</t>
+    <t>enemy,1005,particles/taken-gem.plist,1,particles/taken-gem.plist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3395,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/skillbase.xlsx
+++ b/skillbase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-1860" yWindow="3705" windowWidth="18195" windowHeight="7545"/>
@@ -2279,7 +2279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="184">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2393,639 +2393,635 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SKILL_NAME_1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_2400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_2400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assist_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instant_kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;eventtarget,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;eventtarget,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hppercent,0.7,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valuebase_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,2000,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;enemy,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;enemy,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtrigger,1000,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtrigger,5000,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtrigger,5001,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beDefender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally_except_me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,2001,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,1001,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,1002,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;enemy,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,alive,1;enemy,alive,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profession_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,1,attack,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally,-1,heal,1,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack,1,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,1,Attack,4,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,1003,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,1000,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,5002,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally,1,Heal,1,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,5003,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,2,Attack,1.5,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,-1,Attack,0.9,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,4000,particles/taken-gem.plist,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,2000,particles/taken-gem.plist,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,5004,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self,1,0.5,particles/taken-gem.plist,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,1004,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,boarder_left.png,particles/taken-gem.plist,particles/taken-gem.plist,line,Attack,0.9,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,3000,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventtarget,1006,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,4001,particles/taken-gem.plist,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy,1005,particles/taken-gem.plist,1,particles/taken-gem.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_NAME_1600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uncommon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soul.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_2400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_2400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal_heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assist_heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soul.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uncommon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instant_kill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;eventtarget,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;eventtarget,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hppercent,0.7,particles/taken-gem.plist,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valuebase_heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtarget,2000,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;enemy,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;enemy,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soul.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtrigger,1000,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle_init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtrigger,5000,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtrigger,5001,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle_init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beDefender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ally_except_me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>counter_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtarget,2001,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtarget,1001,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtarget,1002,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1605</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1605</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soul.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;enemy,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,alive,1;enemy,alive,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profession_class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy,1,attack,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ally,-1,heal,1,particles/taken-gem.plist,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack,1,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy,1,Attack,4,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_6001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_6001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,1003,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,1000,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_6002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_6002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,5002,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ally,1,Heal,1,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_6003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_6003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,5003,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal_magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy,2,Attack,1.5,particles/taken-gem.plist,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy,-1,Attack,0.9,particles/taken-gem.plist,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy,4000,particles/taken-gem.plist,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy,2000,particles/taken-gem.plist,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_6004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_6004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,5004,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self,1,0.5,particles/taken-gem.plist,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtarget,1004,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,3,boarder_left.png,particles/taken-gem.plist,particles/taken-gem.plist,line,Attack,0.9,0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multi_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1606</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1606</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1607</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1607</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtarget,3000,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventtarget,1006,particles/taken-gem.plist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy,4001,particles/taken-gem.plist,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy,1005,particles/taken-gem.plist,1,particles/taken-gem.plist</t>
+    <t>active</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3105,11 +3101,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3183,6 +3184,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3217,6 +3219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3392,14 +3395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
@@ -3412,7 +3415,7 @@
     <col min="16" max="16" width="130.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3426,7 +3429,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -3462,7 +3465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -3503,16 +3506,16 @@
         <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
         <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -3520,22 +3523,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -3547,45 +3550,45 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
         <v>80</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -3597,45 +3600,45 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
         <v>86</v>
       </c>
-      <c r="N4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1200</v>
       </c>
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>51</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -3647,22 +3650,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
         <v>34</v>
       </c>
-      <c r="N5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1201</v>
       </c>
@@ -3670,22 +3673,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>90</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>91</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" t="s">
-        <v>93</v>
-      </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -3697,22 +3700,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
         <v>94</v>
       </c>
-      <c r="O6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1202</v>
       </c>
@@ -3720,22 +3723,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -3747,22 +3750,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
         <v>100</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>101</v>
       </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P7" t="s">
-        <v>103</v>
-      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1203</v>
       </c>
@@ -3770,22 +3773,22 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -3797,45 +3800,45 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="M8" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" t="s">
-        <v>94</v>
-      </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1400</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -3847,22 +3850,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1401</v>
       </c>
@@ -3870,19 +3873,19 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
         <v>8</v>
@@ -3897,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
         <v>19</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1600</v>
       </c>
@@ -3920,22 +3923,22 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>30</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -3947,22 +3950,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
         <v>33</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" t="s">
         <v>34</v>
       </c>
-      <c r="N11" t="s">
-        <v>78</v>
-      </c>
-      <c r="O11" t="s">
-        <v>35</v>
-      </c>
       <c r="P11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1601</v>
       </c>
@@ -3970,19 +3973,19 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>73</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" t="s">
-        <v>75</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -3997,22 +4000,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" t="s">
         <v>77</v>
       </c>
-      <c r="N12" t="s">
-        <v>79</v>
-      </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1602</v>
       </c>
@@ -4020,22 +4023,22 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
         <v>107</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>108</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>109</v>
-      </c>
-      <c r="G13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" t="s">
-        <v>111</v>
       </c>
       <c r="I13">
         <v>10</v>
@@ -4047,22 +4050,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1603</v>
       </c>
@@ -4070,22 +4073,22 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -4097,22 +4100,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1605</v>
       </c>
@@ -4120,22 +4123,22 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -4147,22 +4150,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1606</v>
       </c>
@@ -4170,19 +4173,19 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
         <v>8</v>
@@ -4197,22 +4200,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" t="s">
         <v>34</v>
       </c>
-      <c r="N16" t="s">
-        <v>42</v>
-      </c>
-      <c r="O16" t="s">
-        <v>35</v>
-      </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1607</v>
       </c>
@@ -4220,19 +4223,19 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
         <v>8</v>
@@ -4247,22 +4250,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" t="s">
         <v>34</v>
       </c>
-      <c r="N17" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" t="s">
-        <v>35</v>
-      </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -4297,45 +4300,45 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O18" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" t="s">
         <v>127</v>
       </c>
-      <c r="P18" t="s">
-        <v>130</v>
-      </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2400</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
         <v>44</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="s">
-        <v>45</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -4347,45 +4350,45 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="M19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3000</v>
       </c>
       <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s">
         <v>119</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
         <v>120</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" t="s">
         <v>121</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" t="s">
-        <v>123</v>
       </c>
       <c r="I20">
         <v>10</v>
@@ -4397,22 +4400,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="M20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3001</v>
       </c>
@@ -4420,10 +4423,10 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4435,7 +4438,7 @@
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21">
         <v>10</v>
@@ -4447,22 +4450,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="M21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3002</v>
       </c>
@@ -4470,10 +4473,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4482,7 +4485,7 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s">
         <v>8</v>
@@ -4497,22 +4500,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="M22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3003</v>
       </c>
@@ -4520,22 +4523,22 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -4547,22 +4550,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="M23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3004</v>
       </c>
@@ -4570,10 +4573,10 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4597,22 +4600,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3005</v>
       </c>
@@ -4620,10 +4623,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4632,7 +4635,7 @@
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
         <v>8</v>
@@ -4647,22 +4650,22 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3006</v>
       </c>
@@ -4670,22 +4673,22 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I26">
         <v>10</v>
@@ -4697,22 +4700,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="M26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" t="s">
         <v>34</v>
       </c>
-      <c r="N26" t="s">
-        <v>78</v>
-      </c>
-      <c r="O26" t="s">
-        <v>35</v>
-      </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3007</v>
       </c>
@@ -4720,22 +4723,22 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I27">
         <v>10</v>
@@ -4747,22 +4750,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="M27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" t="s">
         <v>34</v>
       </c>
-      <c r="N27" t="s">
-        <v>78</v>
-      </c>
-      <c r="O27" t="s">
-        <v>35</v>
-      </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>4001</v>
       </c>
@@ -4770,16 +4773,16 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -4797,22 +4800,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6000</v>
       </c>
@@ -4820,19 +4823,19 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H29" t="s">
         <v>8</v>
@@ -4847,22 +4850,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="M29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6001</v>
       </c>
@@ -4870,16 +4873,16 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -4897,22 +4900,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="M30" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" t="s">
         <v>34</v>
       </c>
-      <c r="N30" t="s">
-        <v>42</v>
-      </c>
-      <c r="O30" t="s">
-        <v>35</v>
-      </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6002</v>
       </c>
@@ -4920,16 +4923,16 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -4947,22 +4950,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="M31" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" t="s">
         <v>34</v>
       </c>
-      <c r="N31" t="s">
-        <v>42</v>
-      </c>
-      <c r="O31" t="s">
-        <v>35</v>
-      </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6003</v>
       </c>
@@ -4970,16 +4973,16 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>16</v>
@@ -4997,22 +5000,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="M32" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" t="s">
         <v>34</v>
       </c>
-      <c r="N32" t="s">
-        <v>42</v>
-      </c>
-      <c r="O32" t="s">
-        <v>35</v>
-      </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>6004</v>
       </c>
@@ -5020,16 +5023,16 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
@@ -5047,19 +5050,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="M33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" t="s">
         <v>34</v>
       </c>
-      <c r="N33" t="s">
-        <v>42</v>
-      </c>
-      <c r="O33" t="s">
-        <v>35</v>
-      </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5071,12 +5074,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5084,12 +5087,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skillbase.xlsx
+++ b/skillbase.xlsx
@@ -3398,8 +3398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4344,10 +4344,10 @@
         <v>10</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="s">
         <v>183</v>
@@ -4397,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
         <v>183</v>
@@ -4444,10 +4444,10 @@
         <v>10</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="s">
         <v>183</v>
@@ -4497,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="s">
         <v>183</v>
@@ -4544,10 +4544,10 @@
         <v>10</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="s">
         <v>183</v>
@@ -4597,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="s">
         <v>183</v>
@@ -4647,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>183</v>
@@ -4694,10 +4694,10 @@
         <v>10</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>183</v>
@@ -4744,10 +4744,10 @@
         <v>10</v>
       </c>
       <c r="J27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>183</v>
@@ -4794,10 +4794,10 @@
         <v>10</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>183</v>
@@ -4844,10 +4844,10 @@
         <v>10</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>183</v>
@@ -4894,10 +4894,10 @@
         <v>10</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>183</v>
@@ -4944,10 +4944,10 @@
         <v>10</v>
       </c>
       <c r="J31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>183</v>
@@ -4994,10 +4994,10 @@
         <v>10</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>183</v>
@@ -5044,10 +5044,10 @@
         <v>10</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>183</v>
